--- a/public/import/daily_template sabtu.xlsx
+++ b/public/import/daily_template sabtu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -87,19 +87,25 @@
     <t>14:45</t>
   </si>
   <si>
-    <t>Tarik Mutasi Rekening Bank  tanggal 17 Juni 2022</t>
-  </si>
-  <si>
-    <t>Tarik Mutasi Bank di Sistem CSA tanggal 17 Juni 2022</t>
-  </si>
-  <si>
-    <t>Pengecekan Mutasi tanggal 17 Juni 2022</t>
-  </si>
-  <si>
-    <t>Rekap Mutasi blm input, Mutasi slh tf, dan Mutasi salah tanggal 17 Juni 2022</t>
-  </si>
-  <si>
-    <t>2022-06-18</t>
+    <t>ARSIP UANG KELUAR ONLINE DAN TOP</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>Tarik Mutasi Rekening Bank  tanggal 26 Agustus 2022</t>
+  </si>
+  <si>
+    <t>Tarik Mutasi Bank di Sistem CSA tangga 26 Agustus 2022</t>
+  </si>
+  <si>
+    <t>Pengecekan Mutasi tanggal  26 Agustus 2022</t>
+  </si>
+  <si>
+    <t>Rekap Mutasi blm input, Mutasi slh tf, dan Mutasi salah tanggal  26 Agustus 2022</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
   </si>
 </sst>
 </file>
@@ -130,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,11 +159,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -165,6 +182,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +511,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -504,10 +522,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -515,10 +533,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -526,10 +544,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -537,10 +555,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -548,7 +566,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -559,7 +577,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -570,7 +588,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -581,7 +599,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -592,7 +610,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
@@ -603,7 +621,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -614,13 +632,24 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
